--- a/biology/Histoire de la zoologie et de la botanique/Bartl/Bartl..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bartl/Bartl..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Gottlieb Bartling est un botaniste allemand, né le 9 décembre 1798 à Hanovre et mort le 20 novembre 1875 à Hanovre.
 Il étudie l’histoire naturelle à l’université de Göttingen. Bartling visite en 1818 la Hongrie et la Croatie. Il devient en 1822 Privat-docent, en 1836 professeur et en 1837 directeur du jardin botanique de Göttingen.
@@ -512,10 +524,12 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De litoribus ac insulis maris Liburnici (1820)
-[1830] Ordines Naturales Plantarum (es), Göttingen, Sumtibus Dieterichianis, 1830, 498 p., sur books.google.fr (OCLC 868939238, lire en ligne).
+ Ordines Naturales Plantarum (es), Göttingen, Sumtibus Dieterichianis, 1830, 498 p., sur books.google.fr (OCLC 868939238, lire en ligne).
 Flora der österreichischen Küstenländer (1825)
 Avec Georg Ernst Ludwig Hampe (1795-1880) Vegetabilia cellularia in Germania septentrionale praesertim in Hercynia et in agro Gottingensi (1834 et 1836).</t>
         </is>
